--- a/Data_for_AI/data_to_update_mapping.xlsx
+++ b/Data_for_AI/data_to_update_mapping.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY TOMASZ SZCZYGIEŁ MIESZKANIE GRUDZIEŃ</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY TOMASZ SZCZYGIEŁ  MIESZKANIE GRUDZIEŃ</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY BANK MILLENNIUM S.A., UL. S. ZARYNA 2A, 02-593 WARSZAWA SPLATA 17/36 RATY KREDYTU RATALNEGO NR 240723ABET</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY BANK MILLENNIUM S.A., UL. S. ZARYNA 2A, 02-593 WARSZAWA  SPLATA 17/36 RATY KREDYTU RATALNEGO NR 240723ABET</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY ANNA SOBIERAJ PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY ANNA SOBIERAJ  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY WYCHODZĄCY MATEUSZ MICHAŁEK SPOTI</t>
+          <t>PRZELEW WEWNĘTRZNY WYCHODZĄCY MATEUSZ MICHAŁEK  SPOTI</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY mieszkanie Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY mieszkanie Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PRZELEW MTRANSFER WYCHODZACY BLUE MEDIA SPÓŁKA AKCYJNA . UL.POWSTAŃCÓW WARSZAWY 6 81-718 SOPOT POLSKA ORANGE4 ID=</t>
+          <t>PRZELEW MTRANSFER WYCHODZACY BLUE MEDIA SPÓŁKA AKCYJNA . UL.POWSTAŃCÓW WARSZAWY 6 81-718 SOPOT POLSKA  ORANGE4  ID=</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PRZELEW NA TWOJE CELE PRZELEW Z RACHUNKU ORANGE4 ID=</t>
+          <t>PRZELEW NA TWOJE CELE PRZELEW Z RACHUNKU ORANGE4  ID=</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRZELEW MTRANSFER WYCHODZACY BLUE MEDIA SPÓŁKA AKCYJNA . UL.POWSTAŃCÓW WARSZAWY 6 81-718 SOPOT POLSKA ORANGE4 ID=</t>
+          <t>PRZELEW MTRANSFER WYCHODZACY BLUE MEDIA SPÓŁKA AKCYJNA . UL.POWSTAŃCÓW WARSZAWY 6 81-718 SOPOT POLSKA  ORANGE4  ID=</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY benzyna Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY benzyna Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY STAŃCZYK MAŁGORZATA MARIA UL MŁYŃSKA 7A 32-005 NIEPOŁOMICE Na inwestycje braciszku</t>
+          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY STAŃCZYK MAŁGORZATA MARIA UL MŁYŃSKA 7A 32-005 NIEPOŁOMICE  Na inwestycje braciszku</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY MARIA SOBIERAJ GRZECHU STAŃCZYK DISNAY+</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY MARIA SOBIERAJ  GRZECHU STAŃCZYK DISNAY+</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY EDYTA STAŃCZYK UL. MŁYŃSKA 7A 32-005 NIEPOŁOMICE STUDIA</t>
+          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY EDYTA STAŃCZYK UL. MŁYŃSKA 7A 32-005 NIEPOŁOMICE  STUDIA</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY EDYTA STAŃCZYK UL. MŁYŃSKA 7A 32-005 NIEPOŁOMICE WESELE</t>
+          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY EDYTA STAŃCZYK UL. MŁYŃSKA 7A 32-005 NIEPOŁOMICE  WESELE</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY XTB SPOLKA AKCYJNA 52253212</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY XTB SPOLKA AKCYJNA  52253212</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY LUCJUSZ ADAMCZYK UL.WRZOSOWA 61 M.2 32-005 NIEPOŁOMICE PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY LUCJUSZ ADAMCZYK UL.WRZOSOWA 61 M.2 32-005 NIEPOŁOMICE  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GRZEGORZ STAŃCZYK UL.MŁYŃSKA 7A 32-005 NIEPOŁOMICE PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GRZEGORZ STAŃCZYK UL.MŁYŃSKA 7A 32-005 NIEPOŁOMICE  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY UBS BUSINESS SOLUTIONS POLAND SPÓŁKA Z OGRANICZONĄ ODPOWIEDZIALNOŚCIĄ AL. POKOJU 18A 31-564 KRAKÓW UBS BUSINESS SOLUTIONS POLAND SPÓŁKA Z OG UBS BSP Wynagrodzenie za 12.2025Remuneration for 12.2025</t>
+          <t>PRZELEW ZEWNĘTRZNY PRZYCHODZĄCY UBS BUSINESS SOLUTIONS POLAND SPÓŁKA Z OGRANICZONĄ ODPOWIEDZIALNOŚCIĄ AL. POKOJU 18A 31-564 KRAKÓW UBS BUSINESS SOLUTIONS POLAND SPÓŁKA Z OG  UBS BSP Wynagrodzenie za 12.2025Remuneration for 12.2025</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY TOMASZ SZCZYGIEŁ MIESZKANIE STYCZEŃ</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY TOMASZ SZCZYGIEŁ  MIESZKANIE STYCZEŃ</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY BANK MILLENNIUM S.A., UL. S. ZARYNA 2A, 02-593 WARSZAWA SPLATA 18/36 RATY KREDYTU RATALNEGO NR 240723ABET</t>
+          <t>PRZELEW ZEWNĘTRZNY WYCHODZĄCY BANK MILLENNIUM S.A., UL. S. ZARYNA 2A, 02-593 WARSZAWA  SPLATA 18/36 RATY KREDYTU RATALNEGO NR 240723ABET</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GRZEGORZ STAŃCZYK UL.MŁYŃSKA 7A 32-005 NIEPOŁOMICE PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GRZEGORZ STAŃCZYK UL.MŁYŃSKA 7A 32-005 NIEPOŁOMICE  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Narty Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Narty Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY Przelew na telefon Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GABRIELA WAŚKO GAWŁÓW 56 32-711 BOGUCICE PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GABRIELA WAŚKO GAWŁÓW 56 32-711 BOGUCICE  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GABRIELA WAŚKO GAWŁÓW 56 32-711 BOGUCICE PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GABRIELA WAŚKO GAWŁÓW 56 32-711 BOGUCICE  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GRZEGORZ STAŃCZYK UL.MŁYŃSKA 7A 32-005 NIEPOŁOMICE PRZELEW ŚRODKÓW</t>
+          <t>PRZELEW WEWNĘTRZNY PRZYCHODZĄCY GRZEGORZ STAŃCZYK UL.MŁYŃSKA 7A 32-005 NIEPOŁOMICE  PRZELEW ŚRODKÓW</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BLIK P2P-PRZYCHODZĄCY narty Od: Do: 485*****825</t>
+          <t>BLIK P2P-PRZYCHODZĄCY narty Od:  Do: 485*****825</t>
         </is>
       </c>
       <c r="D185" t="n">
